--- a/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3519,4 +3520,1008 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>143.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.9176</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>31.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.7348</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.1782</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.1324</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9694</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>166.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8839</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.09</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.65</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6737</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>60.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5723</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2337</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2135</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2083</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>8.82</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0874</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.44</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0520</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>60.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4524,4 +4525,2110 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>121.88</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.36</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.1892</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>192.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.4616</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>129.69</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.6258</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>96.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.6936</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏回报混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>145.45</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.8799</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>46.80</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.6957</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005450</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华夏稳盛灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.8936</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009010</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>华夏兴阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.18</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.8692</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.1374</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>501093</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华夏翔阳两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9034</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009011</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏睿阳一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23.17</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7762</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.93</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.6881</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>19.66</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>84.81</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6822</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.70</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5642</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>13.37</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4733</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519727</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银成长30混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.67</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4054</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>11.38</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3778</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>31.22</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3028</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3009</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2600</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>10.10</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2576</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2566</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006769</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长城研究精选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.56</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>84.70</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>87.52</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1370</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1329</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>63.78</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0909</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>88.25</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.15</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.71</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0592</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.77</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0300</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.76</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006165</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011500</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>九泰量化新兴产业混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>79.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>003739</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新华鑫弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>43.46</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001303</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>006166</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>64.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>005418</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>申万菱信量化驱动混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.38</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.97</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>160415</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华安量化多因子混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002323</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>银华稳利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>39.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>013442</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>建信中证1000指数增强E</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960002</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏回报混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>56.62</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6631,4 +6632,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>54</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>25</v>
+      </c>
+      <c r="D3" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>42</v>
+      </c>
+      <c r="D4" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>36</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6640,7 +6641,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6651,17 +6652,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6671,14 +6692,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>54</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.4</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>115.50</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.31</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.5980</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -6687,14 +6730,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>25</v>
-      </c>
-      <c r="D3" t="n">
-        <v>17.37</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>183.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.9196</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6703,14 +6768,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>42</v>
-      </c>
-      <c r="D4" t="n">
-        <v>24.14</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.09</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.5315</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -6719,13 +6806,1101 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7779</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4771</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>48.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.8232</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>22.92</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.41</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6441</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.5487</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3285</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.38</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2850</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2797</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1578</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>76.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1085</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012878</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0578</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012879</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中信建投量化精选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0503</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0210</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>32.37</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>71.38</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>25</v>
+      </c>
+      <c r="D4" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>42</v>
+      </c>
+      <c r="D5" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>36</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>13.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7799,7 +7800,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7810,17 +7811,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -7830,14 +7851,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.43</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>10.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.6914</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -7846,14 +7889,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>51.4</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.48</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.2827</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -7862,14 +7927,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>25</v>
-      </c>
-      <c r="D4" t="n">
-        <v>17.37</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.2818</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -7878,14 +7965,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>42</v>
-      </c>
-      <c r="D5" t="n">
-        <v>24.14</v>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.7810</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -7894,13 +8003,3853 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>40.75</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5795</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>41.92</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.9660</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>16.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9660</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>54.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.64</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9647</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>970009</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8998</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>970010</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>方正证券金立方一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>75.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8970</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7979</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7286</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.82</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6743</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.34</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>65.83</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.6565</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.34</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.6408</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>39.48</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.6198</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.84</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5862</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.56</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5707</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>77.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5627</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>30.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5358</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>16.40</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5182</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>31.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.5032</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006593</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>31.17</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3990</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3247</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2898</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>7.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2842</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>200012</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>12.65</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.26</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2783</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2404</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.80</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2240</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>84.35</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2235</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.70</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>79.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2192</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>89.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2144</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.99</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1644</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.74</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1624</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.64</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1558</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1449</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1402</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>006594</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博道中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1332</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>80.24</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.85</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1132</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0945</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>82.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0894</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>92.72</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0872</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003493</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002305</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0706</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0672</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>003016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0631</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>006323</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0505</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007499</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>光大保德信风格轮动混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>519929</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>长信电子信息行业量化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0492</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>005189</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>61.77</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010181</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0334</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011231</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>003512</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信安鑫优选混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.97</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>22.26</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>89.83</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006324</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>合煦智远嘉选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>79.45</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>003578</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中金中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>003803</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006644</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>弘毅远方消费升级混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>28.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0146</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010182</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>兴业优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>79.94</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0122</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>92.83</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005188</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>海富通量化前锋股票C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.94</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>001613</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>长城久祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>88.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>011232</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>光大保德信锦弘混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>20.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>74.91</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>82.72</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>85.66</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>003804</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安新丰利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>30.06</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005965</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>001866</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>北信瑞丰新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.98</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.95</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>005966</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>安信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>160135</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>南方中证高铁产业指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>25</v>
+      </c>
+      <c r="D5" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>42</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>36</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>13.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -11732,7 +11733,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H141"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11743,17 +11744,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -11763,14 +11784,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>51.75</v>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>161.20</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>10.6553</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -11779,14 +11822,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>36.43</v>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.97</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>9.68</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>9.9675</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -11795,14 +11860,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>51.4</v>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>116.05</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.4156</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -11811,14 +11898,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>25</v>
-      </c>
-      <c r="D5" t="n">
-        <v>17.37</v>
+          <t>519736</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>交银新成长混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>106.52</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.2114</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -11827,14 +11936,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>42</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24.14</v>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>119.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.4271</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -11843,13 +11974,5273 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>519688</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>交银精选混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>77.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.2309</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>501087</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>交银施罗德瑞丰三年封闭运作混合型</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>44.08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>81.93</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.72</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.9622</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>36.94</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.1942</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>60.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.0969</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>53.42</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8483</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>71.34</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6123</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>43.37</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1710</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>18.25</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1096</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>31.80</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>87.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1066</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>49.63</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0125</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9465</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012314</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方行业领先混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>23.52</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8208</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.7786</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>41.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.7588</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>19.59</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.7581</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7545</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7374</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>28.91</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7083</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.49</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6738</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>73.99</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6719</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>180003</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>银华-道琼斯88指数 A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.94</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>79.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6544</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.44</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5962</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5341</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>12.68</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5262</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013233</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5150</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007994</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>26.64</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4875</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005136</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华安幸福生活混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4510</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4438</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合(LOF)C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4007</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>7.47</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3937</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3479</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3457</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3269</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8.67</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3008</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.09</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2978</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.65</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2710</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>11.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2433</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>512720</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2424</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2303</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005738</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城智能产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2277</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2213</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.62</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1970</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000824</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1870</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1792</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>86.26</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1791</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1759</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1674</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.08</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1648</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>900013</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1608</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000063</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛电子信息主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>73.07</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1494</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1482</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001009</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>519766</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>交银施罗德荣鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>14.86</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>20.44</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1412</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>900009</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1299</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1150</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1149</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>001050</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富成长多因子量化策略股票</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.24</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1112</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1103</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008311</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1087</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>007995</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华夏中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1007</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0999</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013639</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0981</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>233009</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>大摩多因子精选策略混合</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.12</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0947</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.21</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0899</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>013234</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>华夏中证500指数智选增强C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>005495</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0770</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0703</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.31</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0619</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0605</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>65.81</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>004945</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007853</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>华商计算机行业量化股票</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.04</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0513</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>86.17</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>162216</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>泰达宏利中证500指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0352</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005009</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>24.69</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008856</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏安泰对冲策略3个月定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>86.65</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>010008</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>中融成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005496</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>创金合信科技成长主题股票C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0204</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013426</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>贝莱德中国新视野混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>900059</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中信证券成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>501219</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010157</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010253</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>000825</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>圆信永丰双红利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006230</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>鹏华研究驱动混合</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>85.62</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>013640</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>光大保德信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.67</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013332</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>011205</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>兴银中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010009</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中融成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>014198</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华夏智胜先锋股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0125</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>010158</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>汇安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>91.73</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>86.10</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.78</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0116</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005186</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>003760</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>9.72</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>44.05</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>001351</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>88.20</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>005187</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长安鑫兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>50.15</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006783</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004521</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.91</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>008312</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>圆信永丰优选价值混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.56</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>510440</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>大成中证500沪市ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>95.84</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>006784</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>红土创新中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>92.89</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>010355</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>诺安中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>004522</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>安信工业4.0主题沪港深精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>80.59</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>27.00</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>002640</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合A</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>900133</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>中信证券品质生活混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>013881</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>长信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.46</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>015157</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>申万菱信行业轮动股票C</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>92.03</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>004834</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>003761</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>国泰中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006843</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中信建投睿溢混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>39.52</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>004833</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>先锋聚利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>82.69</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>015172</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>上投摩根安全战略股票C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>0</v>
+      </c>
+      <c r="H141" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>140</v>
+      </c>
+      <c r="D2" t="n">
+        <v>82.31999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>51.75</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.43</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>51.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>25</v>
+      </c>
+      <c r="D6" t="n">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>42</v>
+      </c>
+      <c r="D7" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>36</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>13.14</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603613-国联股份.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>258</v>
+        <v>155</v>
       </c>
       <c r="D2" t="n">
-        <v>122.96</v>
+        <v>79.52</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>140</v>
+        <v>258</v>
       </c>
       <c r="D3" t="n">
-        <v>82.31999999999999</v>
+        <v>122.96</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="D4" t="n">
-        <v>51.75</v>
+        <v>82.31999999999999</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>36.43</v>
+        <v>51.75</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>51.4</v>
+        <v>36.43</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>17.37</v>
+        <v>51.4</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="D8" t="n">
-        <v>24.14</v>
+        <v>17.37</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1454 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>42</v>
+      </c>
+      <c r="D9" t="n">
+        <v>24.14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>36</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>13.14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>146.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.8829</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009715</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>12.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.52</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8033</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6587</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002132</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发鑫享灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5241</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009970</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>财通内需增长12个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>14.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>61.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4742</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>南方大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3496</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>410001</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华富竞争力优选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2061</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000314</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1966</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>003397</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>银华体育文化灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001427</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008456</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1640</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002389</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1612</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007713</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华富科技动能混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>9.70</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004932</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1442</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>002776</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>008457</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>招商瑞阳股债配置混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>6.31</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1155</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006281</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>万家人工智能混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1115</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002819</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1064</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004933</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商丰拓灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23.54</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0901</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>004671</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中融核心成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002017</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>招商瑞丰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>002025</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002390</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商安德灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21.52</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.68</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0255</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002271</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商安弘灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.53</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0195</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001531</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>招商安益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002026</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>广发聚盛灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>20.50</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>001446</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>招商丰泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007943</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富安达中证 500 指数增强</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004344</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>南方大数据100指数C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.77</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>003366</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>浙商汇金中证转型成长指数</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>95.23</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002777</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商安荣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>24.92</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002820</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商丰美灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>28.97</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +2058,5950 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H156"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>008903</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发科技先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>129.95</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>9.4214</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>162703</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>8.3161</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005911</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>98.42</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>7.0567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002939</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发创新升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.8853</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000751</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>81.33</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.61</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.5053</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010186</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64.26</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.8210</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>510500</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方中证500ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>603.45</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.7759</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009795</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实远见精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>58.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.5106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000595</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实泰和混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>43.44</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8766</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000527</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>40.64</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.6337</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>34.42</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.6177</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010357</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.5380</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>310358</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信新经济混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>31.36</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.5304</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>202023</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>南方优选成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5222</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>470009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.2656</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>070002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>嘉实增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>29.11</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>74.32</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.1644</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009929</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.0111</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012064</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>圆信永丰兴诺一年持有混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>42.62</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>83.61</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.9717</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>001736</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>圆信永丰优加生活股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>43.58</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>80.55</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.9631</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>001053</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方创新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>23.58</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>84.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.9573</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009661</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.58</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.7883</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010062</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>23.08</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.7501</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009137</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实瑞和两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.33</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.7279</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>012314</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>南方行业领先混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.39</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6956</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001040</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>新华策略精选股票</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>13.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6841</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007355</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.37</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6754</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519087</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>新华优选分红混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.6750</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>400032</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>东方主题精选混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>12.76</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.6444</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>008854</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>19.12</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.6233</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008955</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>交银施罗德创新领航混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28.16</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>68.84</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5942</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159998</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>天弘中证计算机主题ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>20.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>99.98</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5472</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000478</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>48.60</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.5346</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004958</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>圆信永丰优享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>21.27</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4871</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011488</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>申万菱信乐享混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>88.96</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.4567</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>001702</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方创新科技混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.28</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>013085</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>519156</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.4045</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010242</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>25.81</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159922</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实中证500ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>82.55</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3962</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001036</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>嘉实企业变革股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3752</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011392</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>平安兴鑫回报一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.3329</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009132</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发小盘成长混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.3287</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>007082</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>平安高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.3031</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8.43</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2849</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011122</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2704</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010358</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>南方阿尔法混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>013634</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2558</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009314</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发双擎升级混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2373</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>001759</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实成长增强灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2234</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>519158</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新华趋势领航混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2211</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005742</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>南方成安优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.26</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>90.67</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>005825</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.2208</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010243</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>平安稳健增长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>14.19</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.87</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.2199</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>159852</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>嘉实中证软件服务ETF</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.2183</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010469</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.49</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.2145</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008264</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001297</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>平安智慧中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.77</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.2016</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>512500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华夏中证500ETF</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>41.77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>98.64</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.2005</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008245</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1987</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010187</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>嘉实核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1927</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007733</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>南方智锐混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>5.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>004845</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1845</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>560500</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>鹏扬中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>9.44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>99.08</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1822</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>512330</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>南方中证500信息技术指数ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>99.68</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1811</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007083</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>平安高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015699</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1795</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>070022</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实领先成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.23</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1781</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009662</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>平安研究睿选混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>87.91</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.1736</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>013023</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>004959</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>圆信永丰优悦生活混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.1676</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>008855</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>南方内需增长两年持有期股票C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>014031</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.1477</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>012051</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>申万菱信乐道三年持有期混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.1476</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>000073</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.1406</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>510510</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发中证500ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>010063</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>南方行业精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.1358</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009930</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>南方创新驱动混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>012210</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.1248</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007356</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>汇添富科技创新灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.1189</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011458</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.1144</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>159606</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>易方达中证500质量成长ETF</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159820</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘中证500ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>23.34</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>95.66</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.1074</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>510580</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>易方达中证500ETF</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>20.47</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>95.14</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0942</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0859</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>004982</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>新华安享多裕定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>45.81</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>008246</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>圆信永丰致优混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.79</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0771</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005206</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方优选成长混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>74.13</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0744</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>015159</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>申万菱信智能驱动股票C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.52</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0738</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011459</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东方鑫享价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>87.88</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0677</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>014352</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>东方创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0624</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>002510</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>011457</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>新华行业龙头主题股票</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0603</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>519157</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>新华行业轮换灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008265</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>南方ESG主题股票C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014032</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>南方发展机遇一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0485</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>013086</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>申万菱信乐同混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0481</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>012211</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>申万菱信智能汽车股票C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.83</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>006590</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>南方新优享灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.92</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>005633</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.82</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0372</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>159968</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>博时中证500ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0348</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>510590</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>平安中证500ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007734</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>南方智锐混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.78</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>512510</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证500ETF</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>95.75</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>160616</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>013635</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>申万菱信双利混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>21.28</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011590</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>159728</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>南方国证在线消费ETF</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>99.75</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>159982</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>鹏华中证500ETF</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009608</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>007795</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>申万菱信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.07</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>510290</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>南方上证380ETF</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>510530</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>工银中证500ETF</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0133</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011123</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富ESG可持续成长股票C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>84.56</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>501036</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0126</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>015382</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>165511</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>009609</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>广发中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>013024</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>平安均衡优选1年持有混合C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>88.01</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015381</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>东方兴瑞趋势领航混合A</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>85.64</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>89.86</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>014353</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>东方创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.61</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015173</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>561350</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>国泰中证500ETF</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.52</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>015700</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>平安均衡成长2年持有混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010992</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数A</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010470</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>圆信永丰聚优股票C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>85.15</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>501037</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>汇添富中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>004846</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>南华瑞盈混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>7.18</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>005120</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>上投摩根量化多因子灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>015772</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>515530</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>泰康中证500ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>96.67</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>005607</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>010993</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>西藏东财中证500指数C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159935</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>景顺长城中证500ETF</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>005608</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华宝中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.15</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>660011</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>农银中证500指数</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.80</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>006938</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>鹏华中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>93.24</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011589</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>九泰天利量化股票A</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006611</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>人保中证500指数</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>159999</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>永赢中证500ETF</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>96.56</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>515550</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>中融中证500ETF</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>006420</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>人保优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>006419</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>人保优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>510550</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>方正富邦中证500ETF</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>96.81</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>013119</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>信诚中证500指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>015638</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>上投摩根成长动力混合C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>93.29</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>960014</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>汇添富民营活力混合 O</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G156" t="n">
+        <v>0</v>
+      </c>
+      <c r="H156" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10464,7 +17849,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15838,7 +23223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -19770,7 +27155,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -20928,7 +28313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -23034,7 +30419,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24038,7 +31423,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -25688,1428 +33073,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002939</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发创新升级灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>146.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.97</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>7.8829</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009715</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>汇添富策略增长两年封闭运作灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>12.32</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.22</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>6.52</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.8033</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007355</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>11.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.6587</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>002132</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>广发鑫享灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>12.66</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.54</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.14</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.5241</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009970</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>财通内需增长12个月定期开放混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>14.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>61.31</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.38</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.4742</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001113</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>南方大数据100指数A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>30.67</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3496</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>410001</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华富竞争力优选混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>89.56</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.27</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2061</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>000314</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>8.09</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1966</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007356</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>汇添富科技创新灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>92.91</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.62</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1939</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>003397</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>银华体育文化灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>3.15</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.79</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>5.65</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1780</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>001427</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>8.05</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1642</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>008456</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>8.96</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1640</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>002389</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>8.10</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1612</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>007713</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华富科技动能混合</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>1.53</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>89.54</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>9.70</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.1484</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>004932</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>6.77</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.1442</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>002776</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>6.36</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.1297</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>008457</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>招商瑞阳股债配置混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>6.31</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>21.95</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.1155</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>006281</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>万家人工智能混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>93.59</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>8.71</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.1115</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>002819</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>5.24</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.1064</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>004933</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>招商丰拓灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>4.23</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>23.54</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>2.13</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0901</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>004671</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中融核心成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>90.45</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>5.52</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0712</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002017</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>招商瑞丰灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>21.56</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0542</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002025</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>7.03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0387</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>002390</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>招商安德灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>21.52</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>1.99</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0362</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>290008</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>泰信发展主题混合</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>84.46</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0268</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.30</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0257</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>001978</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>泰信互联网+主题灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>86.68</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.72</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0255</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>002271</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>招商安弘灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>91.53</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0195</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>001531</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>招商安益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>2.48</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0129</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002026</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>广发聚盛灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>1.80</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>20.50</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>0.55</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>001446</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>招商丰泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>0.40</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>21.31</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0082</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>007943</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>富安达中证 500 指数增强</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>1.16</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0060</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004344</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>南方大数据100指数C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.77</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0022</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>003366</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>浙商汇金中证转型成长指数</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>95.23</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.35</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>002777</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>招商安荣灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>24.92</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>2.04</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H36" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>002820</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>招商丰美灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>28.97</t>
-        </is>
-      </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>2.03</t>
-        </is>
-      </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H37" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>